--- a/Homework09 - AB Testing/Data.xlsx
+++ b/Homework09 - AB Testing/Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\90 Nida\7105 CRM\11 Homework09 AB Testing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71BB303B-1C79-4B9B-B518-1BCD442B41E2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85B0BD26-77B4-411C-B6E2-1A36AB245E34}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="3" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RawData" sheetId="1" r:id="rId1"/>
@@ -22,6 +22,8 @@
     <sheet name="Q2_Z Test" sheetId="10" r:id="rId7"/>
     <sheet name="Q3 Data" sheetId="11" r:id="rId8"/>
     <sheet name="Q3_ANOVA" sheetId="12" r:id="rId9"/>
+    <sheet name="Q4 Data" sheetId="13" r:id="rId10"/>
+    <sheet name="Q4_Two-way_ANOVA" sheetId="14" r:id="rId11"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">RawData!$A$1:$J$30</definedName>
@@ -36,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="530" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="708" uniqueCount="137">
   <si>
     <t>17/04/2021 11:12:38</t>
   </si>
@@ -182,13 +184,7 @@
     <t>ข้อสรุป</t>
   </si>
   <si>
-    <t>Chi-square</t>
-  </si>
-  <si>
     <t>T-Test</t>
-  </si>
-  <si>
-    <t>กลุ่มคนอายุ 20-30ปี ชอบผู้หญิงผมยาวมากกว่ากลุ่มคนอายุ 31-40ปี และกลุ่มคนอายุมากกว่า 40ปี</t>
   </si>
   <si>
     <t>Question</t>
@@ -444,12 +440,6 @@
     </r>
   </si>
   <si>
-    <t>นั่นคือ คะแนนเฉลี่ยของประชากรผู้หญิงกับประชากรผู้ชายที่ชอบผู้หญิงผมยาวแตกต่างกัน</t>
-  </si>
-  <si>
-    <t>สรุปได้ว่า ประชากรผู้หญิงกับประชากรผู้ชายชอบผู้หญิงผมยาวแตกต่างกัน</t>
-  </si>
-  <si>
     <t>Over Sampling เพิ่มจากค่าเฉลี่ยตัวอย่างในกลุ่ม</t>
   </si>
   <si>
@@ -561,15 +551,150 @@
   <si>
     <t>สรุปได้ว่า ประชากรที่ชอบผู้หญิงผมยาวช่วงกลุ่มอายุ20-30ปี กลุ่มอายุ31-40ปี และกลุ่มอายุมากกว่า40ปีแตกต่างกันอย่างน้อย 1คู่</t>
   </si>
+  <si>
+    <t>กลุ่มคนอายุ 20-30ปี ชอบผู้หญิงผมยาวไม่แตกต่างกับกลุ่มคนอายุ 31-40ปี และกลุ่มคนอายุมากกว่า 40ปี</t>
+  </si>
+  <si>
+    <t>ทั้งผู้ชายและผู้หญิงกลุ่มคนอายุ 20-30ปี ชอบผู้หญิงผมยาวไม่แตกต่างกับกลุ่มคนอายุ 31-40ปี และกลุ่มคนอายุมากกว่า 40ปี</t>
+  </si>
+  <si>
+    <t>One-way ANOVA + Oversampling</t>
+  </si>
+  <si>
+    <t>Under Sampling ตัดออกจากค่าเฉลี่ยตัวอย่างในกลุ่ม</t>
+  </si>
+  <si>
+    <t>Anova: Two-Factor With Replication</t>
+  </si>
+  <si>
+    <t>Sample</t>
+  </si>
+  <si>
+    <t>Columns</t>
+  </si>
+  <si>
+    <t>Interaction</t>
+  </si>
+  <si>
+    <t>Within</t>
+  </si>
+  <si>
+    <t>Z-Test</t>
+  </si>
+  <si>
+    <t>Two-way ANOVA + Oversampling + Undersampling</t>
+  </si>
+  <si>
+    <r>
+      <t>Do not reject H</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0</t>
+    </r>
+  </si>
+  <si>
+    <t>p-value มีค่า 0.2949 &gt; ระดับนัยสำคัญ 0.05</t>
+  </si>
+  <si>
+    <t>p-value มีค่า 0.0017 &lt; ระดับนัยสำคัญ 0.05</t>
+  </si>
+  <si>
+    <r>
+      <t>Reject H</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0</t>
+    </r>
+  </si>
+  <si>
+    <t>นั่นคือ คะแนนเฉลี่ยของประชากรผู้หญิงกับประชากรผู้ชายที่ชอบผู้หญิงผมยาวไม่แตกต่างกัน</t>
+  </si>
+  <si>
+    <t>สรุปได้ว่า ประชากรผู้หญิงกับประชากรผู้ชายชอบผู้หญิงผมยาวไม่แตกต่างกัน</t>
+  </si>
+  <si>
+    <t>p-value มีค่า 0.408 &gt; ระดับนัยสำคัญ 0.05</t>
+  </si>
+  <si>
+    <r>
+      <t>H</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> : ความชอบผู้หญิงผมยาวไม่ขึ้นกับกลุ่มอายุและเพศ</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>H</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> : ความชอบผู้หญิงผมยาวขึ้นกับกลุ่มอายุและเพศ</t>
+    </r>
+  </si>
+  <si>
+    <t>สรุปได้ว่า ความชอบผู้หญิงผมยาวไม่ขึ้นกับกลุ่มอายุและเพศ</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="[$-D00041E]0"/>
+    <numFmt numFmtId="164" formatCode="[$-D00041E]0"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -612,8 +737,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -638,8 +771,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF006600"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="6">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -702,11 +841,66 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="18"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -729,7 +923,7 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -746,15 +940,48 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -762,6 +989,12 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF00FF00"/>
+      <color rgb="FF006600"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1151,8 +1384,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:J30"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2181,35 +2414,1426 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:J30" xr:uid="{1BE9FB32-DFC8-4101-8B9C-0DF7473C9A5E}"/>
   <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F7B09F2-05B9-4D6A-A2BA-E6CE39C46991}">
+  <sheetPr>
+    <tabColor rgb="FFFF0000"/>
+  </sheetPr>
+  <dimension ref="A1:O46"/>
+  <sheetViews>
+    <sheetView zoomScale="81" zoomScaleNormal="81" workbookViewId="0">
+      <selection activeCell="J26" sqref="J26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="7.109375" customWidth="1"/>
+    <col min="4" max="4" width="39.21875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="40" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A1" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F1" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="G1" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="H1" s="23"/>
+      <c r="I1" s="23"/>
+      <c r="L1" s="28" t="s">
+        <v>36</v>
+      </c>
+      <c r="M1" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="N1" s="21"/>
+      <c r="O1" s="21"/>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A2" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="B2" s="2">
+        <v>3</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="F2" s="25"/>
+      <c r="G2" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="H2" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="I2" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="L2" s="29"/>
+      <c r="M2" s="26" t="s">
+        <v>40</v>
+      </c>
+      <c r="N2" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="O2" s="26" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A3" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="B3" s="2">
+        <v>1</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="G3" s="2">
+        <v>3</v>
+      </c>
+      <c r="H3" s="2">
+        <v>3</v>
+      </c>
+      <c r="I3" s="2">
+        <v>2</v>
+      </c>
+      <c r="L3" s="27" t="s">
+        <v>39</v>
+      </c>
+      <c r="M3" s="16">
+        <v>3</v>
+      </c>
+      <c r="N3" s="16">
+        <v>3</v>
+      </c>
+      <c r="O3" s="16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A4" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="B4" s="13">
+        <v>2</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="D4" t="s">
+        <v>94</v>
+      </c>
+      <c r="G4" s="13">
+        <v>2</v>
+      </c>
+      <c r="H4" s="2">
+        <v>2</v>
+      </c>
+      <c r="I4" s="2">
+        <v>3</v>
+      </c>
+      <c r="L4" s="27"/>
+      <c r="M4" s="16">
+        <v>2</v>
+      </c>
+      <c r="N4" s="16">
+        <v>2</v>
+      </c>
+      <c r="O4" s="16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A5" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="B5" s="13">
+        <v>2</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="D5" t="s">
+        <v>94</v>
+      </c>
+      <c r="G5" s="13">
+        <v>2</v>
+      </c>
+      <c r="H5" s="2">
+        <v>4</v>
+      </c>
+      <c r="I5" s="2">
+        <v>3</v>
+      </c>
+      <c r="L5" s="27"/>
+      <c r="M5" s="16">
+        <v>2</v>
+      </c>
+      <c r="N5" s="16">
+        <v>4</v>
+      </c>
+      <c r="O5" s="16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A6" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="B6" s="13">
+        <v>2</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="D6" t="s">
+        <v>94</v>
+      </c>
+      <c r="G6" s="13">
+        <v>2</v>
+      </c>
+      <c r="H6" s="2">
+        <v>3</v>
+      </c>
+      <c r="I6" s="2">
+        <v>3</v>
+      </c>
+      <c r="L6" s="27"/>
+      <c r="M6" s="16">
+        <v>2</v>
+      </c>
+      <c r="N6" s="16">
+        <v>3</v>
+      </c>
+      <c r="O6" s="16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A7" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="B7" s="13">
+        <v>2</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="D7" t="s">
+        <v>94</v>
+      </c>
+      <c r="G7" s="13">
+        <v>2</v>
+      </c>
+      <c r="H7" s="2">
+        <v>2</v>
+      </c>
+      <c r="I7" s="2">
+        <v>5</v>
+      </c>
+      <c r="L7" s="27"/>
+      <c r="M7" s="16">
+        <v>2</v>
+      </c>
+      <c r="N7" s="16">
+        <v>2</v>
+      </c>
+      <c r="O7" s="16">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A8" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="B8" s="13">
+        <v>2</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="D8" t="s">
+        <v>94</v>
+      </c>
+      <c r="G8" s="13">
+        <v>2</v>
+      </c>
+      <c r="H8" s="2">
+        <v>5</v>
+      </c>
+      <c r="I8" s="2">
+        <v>2</v>
+      </c>
+      <c r="L8" s="27"/>
+      <c r="M8" s="16">
+        <v>2</v>
+      </c>
+      <c r="N8" s="16">
+        <v>5</v>
+      </c>
+      <c r="O8" s="16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A9" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="B9" s="13">
+        <v>2</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="D9" t="s">
+        <v>94</v>
+      </c>
+      <c r="G9" s="13">
+        <v>2</v>
+      </c>
+      <c r="H9" s="13">
+        <f t="shared" ref="H9" si="0">ROUNDUP(AVERAGE($B$32:$B$43),0)</f>
+        <v>4</v>
+      </c>
+      <c r="I9" s="2">
+        <v>0</v>
+      </c>
+      <c r="L9" s="27"/>
+      <c r="M9" s="16">
+        <v>2</v>
+      </c>
+      <c r="N9" s="16">
+        <f t="shared" ref="N9" si="1">ROUNDUP(AVERAGE($B$32:$B$43),0)</f>
+        <v>4</v>
+      </c>
+      <c r="O9" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A10" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="B10" s="13">
+        <v>2</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="D10" t="s">
+        <v>94</v>
+      </c>
+      <c r="I10" s="2">
+        <v>0</v>
+      </c>
+      <c r="J10" t="s">
+        <v>119</v>
+      </c>
+      <c r="L10" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="M10" s="16">
+        <v>1</v>
+      </c>
+      <c r="N10" s="16">
+        <v>4</v>
+      </c>
+      <c r="O10" s="16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A11" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="B11" s="13">
+        <v>2</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="D11" t="s">
+        <v>94</v>
+      </c>
+      <c r="L11" s="27"/>
+      <c r="M11" s="16">
+        <v>2</v>
+      </c>
+      <c r="N11" s="16">
+        <v>5</v>
+      </c>
+      <c r="O11" s="16">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A12" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="B12" s="13">
+        <v>2</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="D12" t="s">
+        <v>94</v>
+      </c>
+      <c r="L12" s="27"/>
+      <c r="M12" s="16">
+        <v>2</v>
+      </c>
+      <c r="N12" s="16">
+        <v>3</v>
+      </c>
+      <c r="O12" s="16">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A13" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="B13" s="13">
+        <v>2</v>
+      </c>
+      <c r="C13" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="D13" t="s">
+        <v>94</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="G13" s="2">
+        <v>1</v>
+      </c>
+      <c r="H13" s="2">
+        <v>4</v>
+      </c>
+      <c r="I13" s="2">
+        <v>2</v>
+      </c>
+      <c r="L13" s="27"/>
+      <c r="M13" s="16">
+        <v>2</v>
+      </c>
+      <c r="N13" s="16">
+        <v>3</v>
+      </c>
+      <c r="O13" s="16">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A14" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="B14" s="13">
+        <v>2</v>
+      </c>
+      <c r="C14" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="D14" t="s">
+        <v>94</v>
+      </c>
+      <c r="G14" s="13">
+        <v>2</v>
+      </c>
+      <c r="H14" s="2">
+        <v>5</v>
+      </c>
+      <c r="I14" s="2">
+        <v>4</v>
+      </c>
+      <c r="L14" s="27"/>
+      <c r="M14" s="16">
+        <v>2</v>
+      </c>
+      <c r="N14" s="16">
+        <v>5</v>
+      </c>
+      <c r="O14" s="16">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A15" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="B15" s="13">
+        <v>2</v>
+      </c>
+      <c r="C15" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="D15" t="s">
+        <v>94</v>
+      </c>
+      <c r="G15" s="13">
+        <v>2</v>
+      </c>
+      <c r="H15" s="2">
+        <v>3</v>
+      </c>
+      <c r="I15" s="2">
+        <v>4</v>
+      </c>
+      <c r="L15" s="27"/>
+      <c r="M15" s="16">
+        <v>2</v>
+      </c>
+      <c r="N15" s="16">
+        <v>5</v>
+      </c>
+      <c r="O15" s="16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A16" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="B16" s="13">
+        <v>2</v>
+      </c>
+      <c r="C16" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="D16" t="s">
+        <v>94</v>
+      </c>
+      <c r="G16" s="13">
+        <v>2</v>
+      </c>
+      <c r="H16" s="2">
+        <v>3</v>
+      </c>
+      <c r="I16" s="2">
+        <v>5</v>
+      </c>
+      <c r="L16" s="27"/>
+      <c r="M16" s="16">
+        <v>2</v>
+      </c>
+      <c r="N16" s="16">
+        <f>ROUNDUP(AVERAGE($B$32:$B$43),0)</f>
+        <v>4</v>
+      </c>
+      <c r="O16" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A17" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="B17" s="2">
+        <v>2</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G17" s="13">
+        <v>2</v>
+      </c>
+      <c r="H17" s="2">
+        <v>5</v>
+      </c>
+      <c r="I17" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A18" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="B18" s="2">
+        <v>4</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G18" s="13">
+        <v>2</v>
+      </c>
+      <c r="H18" s="2">
+        <v>5</v>
+      </c>
+      <c r="I18" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A19" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="B19" s="2">
+        <v>4</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G19" s="13">
+        <v>2</v>
+      </c>
+      <c r="H19" s="13">
+        <f>ROUNDUP(AVERAGE($B$32:$B$43),0)</f>
+        <v>4</v>
+      </c>
+      <c r="I19" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A20" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="B20" s="2">
+        <v>5</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G20" s="13">
+        <v>2</v>
+      </c>
+      <c r="H20" s="13">
+        <f t="shared" ref="H20" si="2">ROUNDUP(AVERAGE($B$32:$B$43),0)</f>
+        <v>4</v>
+      </c>
+      <c r="J20" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A21" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="B21" s="2">
+        <v>5</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A22" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="B22" s="2">
+        <v>2</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A23" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="B23" s="2">
+        <v>3</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A24" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="B24" s="2">
+        <v>2</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A25" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="B25" s="2">
+        <v>3</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A26" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="B26" s="2">
+        <v>3</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A27" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="B27" s="2">
+        <v>5</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A28" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="B28" s="2">
+        <v>2</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A29" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="B29" s="2">
+        <v>0</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A30" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="B30" s="2">
+        <v>0</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A31" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="B31" s="2">
+        <v>0</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A32" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="B32" s="2">
+        <v>4</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="B33" s="2">
+        <v>5</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="B34" s="2">
+        <v>3</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="B35" s="2">
+        <v>3</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A36" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="B36" s="2">
+        <v>2</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A37" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="B37" s="2">
+        <v>3</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A38" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="B38" s="2">
+        <v>5</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A39" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="B39" s="2">
+        <v>5</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A40" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="B40" s="2">
+        <v>4</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A41" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="B41" s="2">
+        <v>3</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A42" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="B42" s="2">
+        <v>2</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A43" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="B43" s="2">
+        <v>5</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A44" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="B44" s="13">
+        <f>ROUNDUP(AVERAGE($B$32:$B$43),0)</f>
+        <v>4</v>
+      </c>
+      <c r="C44" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="D44" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A45" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="B45" s="13">
+        <f t="shared" ref="B45:B46" si="3">ROUNDUP(AVERAGE($B$32:$B$43),0)</f>
+        <v>4</v>
+      </c>
+      <c r="C45" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="D45" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A46" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="B46" s="13">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="C46" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="D46" t="s">
+        <v>94</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="G1:I1"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="M1:O1"/>
+    <mergeCell ref="L3:L9"/>
+    <mergeCell ref="L10:L16"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49CBB3EB-C1AF-4B19-A3A5-E9F3F8A00653}">
+  <sheetPr>
+    <tabColor rgb="FFFF0000"/>
+  </sheetPr>
+  <dimension ref="A1:I31"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
+      <selection activeCell="N8" sqref="N8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="31" bestFit="1" customWidth="1"/>
+    <col min="2" max="7" width="12" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="30" t="s">
+        <v>39</v>
+      </c>
+      <c r="B4" s="30"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="30"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="B5" s="9">
+        <v>7</v>
+      </c>
+      <c r="C5" s="9">
+        <v>7</v>
+      </c>
+      <c r="D5" s="9">
+        <v>7</v>
+      </c>
+      <c r="E5" s="9">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="B6" s="9">
+        <v>15</v>
+      </c>
+      <c r="C6" s="9">
+        <v>23</v>
+      </c>
+      <c r="D6" s="9">
+        <v>18</v>
+      </c>
+      <c r="E6" s="9">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="B7" s="9">
+        <v>2.1428571428571428</v>
+      </c>
+      <c r="C7" s="9">
+        <v>3.2857142857142856</v>
+      </c>
+      <c r="D7" s="9">
+        <v>2.5714285714285716</v>
+      </c>
+      <c r="E7" s="9">
+        <v>2.6666666666666665</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="B8" s="9">
+        <v>0.14285714285714235</v>
+      </c>
+      <c r="C8" s="9">
+        <v>1.2380952380952384</v>
+      </c>
+      <c r="D8" s="9">
+        <v>2.285714285714286</v>
+      </c>
+      <c r="E8" s="9">
+        <v>1.3333333333333328</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9" s="9"/>
+      <c r="B9" s="9"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+    </row>
+    <row r="10" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="30" t="s">
+        <v>38</v>
+      </c>
+      <c r="B10" s="30"/>
+      <c r="C10" s="30"/>
+      <c r="D10" s="30"/>
+      <c r="E10" s="30"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="B11" s="9">
+        <v>7</v>
+      </c>
+      <c r="C11" s="9">
+        <v>7</v>
+      </c>
+      <c r="D11" s="9">
+        <v>7</v>
+      </c>
+      <c r="E11" s="9">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="B12" s="9">
+        <v>13</v>
+      </c>
+      <c r="C12" s="9">
+        <v>29</v>
+      </c>
+      <c r="D12" s="9">
+        <v>22</v>
+      </c>
+      <c r="E12" s="9">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A13" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="B13" s="9">
+        <v>1.8571428571428572</v>
+      </c>
+      <c r="C13" s="9">
+        <v>4.1428571428571432</v>
+      </c>
+      <c r="D13" s="9">
+        <v>3.1428571428571428</v>
+      </c>
+      <c r="E13" s="9">
+        <v>3.0476190476190474</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A14" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="B14" s="9">
+        <v>0.14285714285714293</v>
+      </c>
+      <c r="C14" s="9">
+        <v>0.8095238095238102</v>
+      </c>
+      <c r="D14" s="9">
+        <v>3.4761904761904767</v>
+      </c>
+      <c r="E14" s="9">
+        <v>2.2476190476190481</v>
+      </c>
+      <c r="I14" s="31" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A15" s="9"/>
+      <c r="B15" s="9"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+      <c r="I15" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A16" s="30" t="s">
+        <v>109</v>
+      </c>
+      <c r="B16" s="30"/>
+      <c r="C16" s="30"/>
+      <c r="D16" s="30"/>
+      <c r="I16" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A17" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="B17" s="9">
+        <v>14</v>
+      </c>
+      <c r="C17" s="9">
+        <v>14</v>
+      </c>
+      <c r="D17" s="9">
+        <v>14</v>
+      </c>
+      <c r="I17" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A18" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="B18" s="9">
+        <v>28</v>
+      </c>
+      <c r="C18" s="9">
+        <v>52</v>
+      </c>
+      <c r="D18" s="9">
+        <v>40</v>
+      </c>
+      <c r="I18" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A19" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="B19" s="9">
+        <v>2</v>
+      </c>
+      <c r="C19" s="9">
+        <v>3.7142857142857144</v>
+      </c>
+      <c r="D19" s="9">
+        <v>2.8571428571428572</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A20" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="B20" s="9">
+        <v>0.15384615384615385</v>
+      </c>
+      <c r="C20" s="9">
+        <v>1.1428571428571432</v>
+      </c>
+      <c r="D20" s="9">
+        <v>2.7472527472527468</v>
+      </c>
+      <c r="I20" s="31" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A21" s="9"/>
+      <c r="B21" s="9"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="9"/>
+      <c r="I21" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="I22" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>100</v>
+      </c>
+      <c r="I23" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A24" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="B24" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="C24" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="D24" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="E24" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="F24" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="G24" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="I24" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A25" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="B25" s="9">
+        <v>1.523809523809561</v>
+      </c>
+      <c r="C25" s="9">
+        <v>1</v>
+      </c>
+      <c r="D25" s="9">
+        <v>1.523809523809561</v>
+      </c>
+      <c r="E25" s="9">
+        <v>1.1294117647059101</v>
+      </c>
+      <c r="F25" s="9">
+        <v>0.29497808416064814</v>
+      </c>
+      <c r="G25" s="9">
+        <v>4.1131652768128939</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A26" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="B26" s="9">
+        <v>20.571428571428612</v>
+      </c>
+      <c r="C26" s="9">
+        <v>2</v>
+      </c>
+      <c r="D26" s="9">
+        <v>10.285714285714306</v>
+      </c>
+      <c r="E26" s="9">
+        <v>7.6235294117647214</v>
+      </c>
+      <c r="F26" s="9">
+        <v>1.7354175982413188E-3</v>
+      </c>
+      <c r="G26" s="9">
+        <v>3.2594463061441079</v>
+      </c>
+      <c r="I26" s="31" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A27" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="B27" s="9">
+        <v>2.476190476190439</v>
+      </c>
+      <c r="C27" s="9">
+        <v>2</v>
+      </c>
+      <c r="D27" s="9">
+        <v>1.2380952380952195</v>
+      </c>
+      <c r="E27" s="9">
+        <v>0.91764705882351572</v>
+      </c>
+      <c r="F27" s="9">
+        <v>0.40859867624228774</v>
+      </c>
+      <c r="G27" s="9">
+        <v>3.2594463061441079</v>
+      </c>
+      <c r="I27" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A28" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="B28" s="9">
+        <v>48.571428571428569</v>
+      </c>
+      <c r="C28" s="9">
+        <v>36</v>
+      </c>
+      <c r="D28" s="9">
+        <v>1.3492063492063491</v>
+      </c>
+      <c r="E28" s="9"/>
+      <c r="F28" s="9"/>
+      <c r="G28" s="9"/>
+      <c r="I28" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A29" s="9"/>
+      <c r="B29" s="9"/>
+      <c r="C29" s="9"/>
+      <c r="D29" s="9"/>
+      <c r="E29" s="9"/>
+      <c r="F29" s="9"/>
+      <c r="G29" s="9"/>
+      <c r="I29" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A30" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="B30" s="10">
+        <v>73.142857142857181</v>
+      </c>
+      <c r="C30" s="10">
+        <v>41</v>
+      </c>
+      <c r="D30" s="10"/>
+      <c r="E30" s="10"/>
+      <c r="F30" s="10"/>
+      <c r="G30" s="10"/>
+      <c r="I30" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I31" t="s">
+        <v>136</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DF7927D-12C3-4111-A622-E6B42945D900}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="3.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="75" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="101.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="42.77734375" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="2"/>
       <c r="B1" s="6" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
@@ -2220,7 +3844,7 @@
         <v>44</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -2228,10 +3852,10 @@
         <v>45</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>49</v>
+        <v>125</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -2239,10 +3863,21 @@
         <v>46</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>50</v>
+        <v>116</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>48</v>
+        <v>118</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>126</v>
       </c>
     </row>
   </sheetData>
@@ -2252,10 +3887,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CFF64C9-0B96-45A4-A83D-ABFFD85256E1}">
+  <sheetPr>
+    <tabColor theme="7" tint="0.39997558519241921"/>
+  </sheetPr>
   <dimension ref="A1:B30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G32" sqref="G32"/>
+    <sheetView zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
+      <selection activeCell="L19" sqref="L18:L19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2267,7 +3905,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B1" s="6" t="s">
         <v>35</v>
@@ -2519,7 +4157,7 @@
   <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2535,7 +4173,7 @@
       </c>
       <c r="B1" s="12"/>
       <c r="D1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
@@ -2544,13 +4182,13 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="9" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B3" s="9">
         <v>3.0344827586206895</v>
       </c>
       <c r="D3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E3">
         <v>2.5</v>
@@ -2558,13 +4196,13 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B4" s="9">
         <v>0.29143250163052298</v>
       </c>
       <c r="D4" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E4">
         <v>0.05</v>
@@ -2572,7 +4210,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="9" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B5" s="9">
         <v>3</v>
@@ -2580,13 +4218,13 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="9" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B6" s="9">
         <v>3</v>
       </c>
       <c r="D6" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E6">
         <f>B15-1</f>
@@ -2595,13 +4233,13 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="9" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B7" s="9">
         <v>1.5694120514358612</v>
       </c>
       <c r="D7" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E7">
         <f>(B3-E3)/B4</f>
@@ -2610,7 +4248,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="9" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B8" s="9">
         <v>2.4630541871921179</v>
@@ -2618,13 +4256,13 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="9" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B9" s="9">
         <v>-0.53189470085470036</v>
       </c>
       <c r="D9" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E9">
         <f>_xlfn.T.DIST(E7,E6,TRUE)</f>
@@ -2633,13 +4271,13 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="9" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B10" s="9">
         <v>-0.41813252397408424</v>
       </c>
       <c r="D10" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E10">
         <f>_xlfn.T.DIST.RT(E7,E6)</f>
@@ -2648,13 +4286,13 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="9" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B11" s="9">
         <v>5</v>
       </c>
       <c r="D11" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E11">
         <f>_xlfn.T.DIST.2T((ABS(E7)),E6)</f>
@@ -2663,7 +4301,7 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="9" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B12" s="9">
         <v>0</v>
@@ -2671,7 +4309,7 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="9" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B13" s="9">
         <v>5</v>
@@ -2679,7 +4317,7 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="9" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B14" s="9">
         <v>88</v>
@@ -2687,7 +4325,7 @@
     </row>
     <row r="15" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="10" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B15" s="10">
         <v>29</v>
@@ -2695,32 +4333,32 @@
     </row>
     <row r="17" spans="4:4" ht="15.6" x14ac:dyDescent="0.35">
       <c r="D17" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="18" spans="4:4" ht="15.6" x14ac:dyDescent="0.35">
       <c r="D18" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="20" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D20" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="21" spans="4:4" ht="15.6" x14ac:dyDescent="0.35">
       <c r="D21" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="22" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D22" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="23" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D23" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -2731,10 +4369,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78BABFE4-8A8D-421E-9F27-D6B42A73701F}">
+  <sheetPr>
+    <tabColor rgb="FF00FF00"/>
+  </sheetPr>
   <dimension ref="A1:C30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H29" sqref="H29"/>
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3080,12 +4721,12 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E88456AA-4AD9-493A-B3E9-F7FCCBDC1AAA}">
   <sheetPr>
-    <tabColor theme="7" tint="0.39997558519241921"/>
+    <tabColor rgb="FF00FF00"/>
   </sheetPr>
   <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J25" sqref="J25"/>
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3097,11 +4738,11 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="12" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B1" s="12"/>
       <c r="D1" s="12" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E1" s="12"/>
     </row>
@@ -3113,13 +4754,13 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="9" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B3" s="9">
         <v>2.6666666666666665</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E3" s="9">
         <v>3.4285714285714284</v>
@@ -3127,13 +4768,13 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B4" s="9">
         <v>0.37374127372092536</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E4" s="9">
         <v>0.44120571208537868</v>
@@ -3141,13 +4782,13 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="9" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B5" s="9">
         <v>3</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E5" s="9">
         <v>4</v>
@@ -3155,13 +4796,13 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="9" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B6" s="9">
         <v>3</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E6" s="9">
         <v>5</v>
@@ -3169,13 +4810,13 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="9" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B7" s="9">
         <v>1.4474937289114918</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E7" s="9">
         <v>1.6508406117111138</v>
@@ -3183,13 +4824,13 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="9" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B8" s="9">
         <v>2.0952380952380949</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E8" s="9">
         <v>2.7252747252747245</v>
@@ -3197,13 +4838,13 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="9" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B9" s="9">
         <v>0.3471074380165291</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E9" s="9">
         <v>-0.34487631255321194</v>
@@ -3211,13 +4852,13 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="9" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B10" s="9">
         <v>-0.30194461525688687</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E10" s="9">
         <v>-0.81092606271163081</v>
@@ -3225,13 +4866,13 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="9" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B11" s="9">
         <v>5</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E11" s="9">
         <v>5</v>
@@ -3239,13 +4880,13 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="9" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B12" s="9">
         <v>0</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E12" s="9">
         <v>0</v>
@@ -3253,13 +4894,13 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="9" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B13" s="9">
         <v>5</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E13" s="9">
         <v>5</v>
@@ -3267,13 +4908,13 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="9" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B14" s="9">
         <v>40</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E14" s="9">
         <v>48</v>
@@ -3281,13 +4922,13 @@
     </row>
     <row r="15" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="10" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B15" s="10">
         <v>15</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E15" s="10">
         <v>14</v>
@@ -3301,12 +4942,12 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10228D1A-9598-41DC-B317-67FBDB218C62}">
   <sheetPr>
-    <tabColor theme="7" tint="0.39997558519241921"/>
+    <tabColor rgb="FF00FF00"/>
   </sheetPr>
   <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3319,22 +4960,22 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="11"/>
       <c r="B3" s="11" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B4" s="9">
         <v>2.6666666666666665</v>
@@ -3345,7 +4986,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="9" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B5" s="9">
         <v>15</v>
@@ -3356,7 +4997,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="9" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B6" s="9">
         <v>15</v>
@@ -3367,7 +5008,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="9" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B7" s="9">
         <v>0</v>
@@ -3376,7 +5017,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="9" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B8" s="9">
         <v>-0.53874802376117903</v>
@@ -3385,7 +5026,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="9" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B9" s="9">
         <v>0.29503036601070565</v>
@@ -3394,7 +5035,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="9" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B10" s="9">
         <v>1.6448536269514715</v>
@@ -3403,7 +5044,7 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="9" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B11" s="9">
         <v>0.59006073202141129</v>
@@ -3412,7 +5053,7 @@
     </row>
     <row r="12" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="10" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B12" s="10">
         <v>1.9599639845400536</v>
@@ -3421,32 +5062,32 @@
     </row>
     <row r="14" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
       <c r="E14" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
       <c r="E15" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="17" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E17" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="18" spans="5:5" ht="15.6" x14ac:dyDescent="0.35">
       <c r="E18" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="19" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E19" t="s">
-        <v>96</v>
+        <v>131</v>
       </c>
     </row>
     <row r="20" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E20" t="s">
-        <v>97</v>
+        <v>132</v>
       </c>
     </row>
   </sheetData>
@@ -3456,10 +5097,13 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E975B411-3F18-47FD-9AEE-A3247782B950}">
+  <sheetPr>
+    <tabColor rgb="FF00B0F0"/>
+  </sheetPr>
   <dimension ref="A1:V46"/>
   <sheetViews>
     <sheetView zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="I29" sqref="I29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3480,23 +5124,23 @@
       <c r="G1" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="H1" s="15" t="s">
+      <c r="H1" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="I1" s="16"/>
-      <c r="J1" s="16"/>
-      <c r="K1" s="16"/>
-      <c r="L1" s="16"/>
-      <c r="M1" s="16"/>
-      <c r="N1" s="16"/>
-      <c r="O1" s="16"/>
-      <c r="P1" s="16"/>
-      <c r="Q1" s="16"/>
-      <c r="R1" s="16"/>
-      <c r="S1" s="16"/>
-      <c r="T1" s="16"/>
-      <c r="U1" s="16"/>
-      <c r="V1" s="16"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="18"/>
+      <c r="K1" s="18"/>
+      <c r="L1" s="18"/>
+      <c r="M1" s="18"/>
+      <c r="N1" s="18"/>
+      <c r="O1" s="18"/>
+      <c r="P1" s="18"/>
+      <c r="Q1" s="18"/>
+      <c r="R1" s="18"/>
+      <c r="S1" s="18"/>
+      <c r="T1" s="18"/>
+      <c r="U1" s="18"/>
+      <c r="V1" s="18"/>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
@@ -3511,62 +5155,62 @@
       <c r="G2" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="H2" s="18">
-        <v>3</v>
-      </c>
-      <c r="I2" s="18">
-        <v>1</v>
-      </c>
-      <c r="J2" s="18">
-        <f>ROUNDUP(AVERAGE($H$2:$I$2),0)</f>
-        <v>2</v>
-      </c>
-      <c r="K2" s="18">
-        <f>ROUNDUP(AVERAGE($H$2:$I$2),0)</f>
-        <v>2</v>
-      </c>
-      <c r="L2" s="18">
-        <f>ROUNDUP(AVERAGE($H$2:$I$2),0)</f>
-        <v>2</v>
-      </c>
-      <c r="M2" s="18">
-        <f>ROUNDUP(AVERAGE($H$2:$I$2),0)</f>
-        <v>2</v>
-      </c>
-      <c r="N2" s="18">
-        <f>ROUNDUP(AVERAGE($H$2:$I$2),0)</f>
-        <v>2</v>
-      </c>
-      <c r="O2" s="18">
-        <f>ROUNDUP(AVERAGE($H$2:$I$2),0)</f>
-        <v>2</v>
-      </c>
-      <c r="P2" s="18">
-        <f>ROUNDUP(AVERAGE($H$2:$I$2),0)</f>
-        <v>2</v>
-      </c>
-      <c r="Q2" s="18">
-        <f>ROUNDUP(AVERAGE($H$2:$I$2),0)</f>
-        <v>2</v>
-      </c>
-      <c r="R2" s="18">
-        <f>ROUNDUP(AVERAGE($H$2:$I$2),0)</f>
-        <v>2</v>
-      </c>
-      <c r="S2" s="18">
-        <f>ROUNDUP(AVERAGE($H$2:$I$2),0)</f>
-        <v>2</v>
-      </c>
-      <c r="T2" s="18">
-        <f>ROUNDUP(AVERAGE($H$2:$I$2),0)</f>
-        <v>2</v>
-      </c>
-      <c r="U2" s="18">
-        <f>ROUNDUP(AVERAGE($H$2:$I$2),0)</f>
-        <v>2</v>
-      </c>
-      <c r="V2" s="18">
-        <f>ROUNDUP(AVERAGE($H$2:$I$2),0)</f>
+      <c r="H2" s="16">
+        <v>3</v>
+      </c>
+      <c r="I2" s="16">
+        <v>1</v>
+      </c>
+      <c r="J2" s="16">
+        <f t="shared" ref="J2:V2" si="0">ROUNDUP(AVERAGE($H$2:$I$2),0)</f>
+        <v>2</v>
+      </c>
+      <c r="K2" s="16">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="L2" s="16">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="M2" s="16">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="N2" s="16">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="O2" s="16">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="P2" s="16">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="Q2" s="16">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="R2" s="16">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="S2" s="16">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="T2" s="16">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="U2" s="16">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="V2" s="16">
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
@@ -3583,51 +5227,51 @@
       <c r="G3" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="H3" s="18">
+      <c r="H3" s="16">
         <v>4</v>
       </c>
-      <c r="I3" s="18">
-        <v>5</v>
-      </c>
-      <c r="J3" s="18">
-        <v>3</v>
-      </c>
-      <c r="K3" s="18">
-        <v>3</v>
-      </c>
-      <c r="L3" s="18">
-        <v>2</v>
-      </c>
-      <c r="M3" s="18">
-        <v>3</v>
-      </c>
-      <c r="N3" s="18">
-        <v>5</v>
-      </c>
-      <c r="O3" s="18">
-        <v>5</v>
-      </c>
-      <c r="P3" s="18">
+      <c r="I3" s="16">
+        <v>5</v>
+      </c>
+      <c r="J3" s="16">
+        <v>3</v>
+      </c>
+      <c r="K3" s="16">
+        <v>3</v>
+      </c>
+      <c r="L3" s="16">
+        <v>2</v>
+      </c>
+      <c r="M3" s="16">
+        <v>3</v>
+      </c>
+      <c r="N3" s="16">
+        <v>5</v>
+      </c>
+      <c r="O3" s="16">
+        <v>5</v>
+      </c>
+      <c r="P3" s="16">
         <v>4</v>
       </c>
-      <c r="Q3" s="18">
-        <v>3</v>
-      </c>
-      <c r="R3" s="18">
-        <v>2</v>
-      </c>
-      <c r="S3" s="18">
-        <v>5</v>
-      </c>
-      <c r="T3" s="18">
+      <c r="Q3" s="16">
+        <v>3</v>
+      </c>
+      <c r="R3" s="16">
+        <v>2</v>
+      </c>
+      <c r="S3" s="16">
+        <v>5</v>
+      </c>
+      <c r="T3" s="16">
         <f>ROUNDUP(AVERAGE($H$3:$S$3),0)</f>
         <v>4</v>
       </c>
-      <c r="U3" s="18">
+      <c r="U3" s="16">
         <f>ROUNDUP(AVERAGE($H$3:$S$3),0)</f>
         <v>4</v>
       </c>
-      <c r="V3" s="18">
+      <c r="V3" s="16">
         <f>ROUNDUP(AVERAGE($H$3:$S$3),0)</f>
         <v>4</v>
       </c>
@@ -3644,54 +5288,54 @@
         <v>2</v>
       </c>
       <c r="D4" t="s">
-        <v>98</v>
-      </c>
-      <c r="G4" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="G4" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="H4" s="18">
-        <v>2</v>
-      </c>
-      <c r="I4" s="18">
+      <c r="H4" s="16">
+        <v>2</v>
+      </c>
+      <c r="I4" s="16">
         <v>4</v>
       </c>
-      <c r="J4" s="18">
+      <c r="J4" s="16">
         <v>4</v>
       </c>
-      <c r="K4" s="18">
-        <v>5</v>
-      </c>
-      <c r="L4" s="18">
-        <v>5</v>
-      </c>
-      <c r="M4" s="18">
-        <v>2</v>
-      </c>
-      <c r="N4" s="18">
-        <v>3</v>
-      </c>
-      <c r="O4" s="18">
-        <v>2</v>
-      </c>
-      <c r="P4" s="18">
-        <v>3</v>
-      </c>
-      <c r="Q4" s="18">
-        <v>3</v>
-      </c>
-      <c r="R4" s="18">
-        <v>5</v>
-      </c>
-      <c r="S4" s="18">
-        <v>2</v>
-      </c>
-      <c r="T4" s="18">
+      <c r="K4" s="16">
+        <v>5</v>
+      </c>
+      <c r="L4" s="16">
+        <v>5</v>
+      </c>
+      <c r="M4" s="16">
+        <v>2</v>
+      </c>
+      <c r="N4" s="16">
+        <v>3</v>
+      </c>
+      <c r="O4" s="16">
+        <v>2</v>
+      </c>
+      <c r="P4" s="16">
+        <v>3</v>
+      </c>
+      <c r="Q4" s="16">
+        <v>3</v>
+      </c>
+      <c r="R4" s="16">
+        <v>5</v>
+      </c>
+      <c r="S4" s="16">
+        <v>2</v>
+      </c>
+      <c r="T4" s="16">
         <v>0</v>
       </c>
-      <c r="U4" s="18">
+      <c r="U4" s="16">
         <v>0</v>
       </c>
-      <c r="V4" s="18">
+      <c r="V4" s="16">
         <v>0</v>
       </c>
     </row>
@@ -3700,14 +5344,14 @@
         <v>40</v>
       </c>
       <c r="B5" s="13">
-        <f t="shared" ref="B5:B16" si="0">ROUNDUP(AVERAGE($B$2:$B$3),0)</f>
+        <f t="shared" ref="B5:B16" si="1">ROUNDUP(AVERAGE($B$2:$B$3),0)</f>
         <v>2</v>
       </c>
       <c r="C5" s="13" t="s">
         <v>2</v>
       </c>
       <c r="D5" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.3">
@@ -3715,14 +5359,14 @@
         <v>40</v>
       </c>
       <c r="B6" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="C6" s="13" t="s">
         <v>2</v>
       </c>
       <c r="D6" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.3">
@@ -3730,14 +5374,14 @@
         <v>40</v>
       </c>
       <c r="B7" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="C7" s="13" t="s">
         <v>2</v>
       </c>
       <c r="D7" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.3">
@@ -3745,14 +5389,14 @@
         <v>40</v>
       </c>
       <c r="B8" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="C8" s="13" t="s">
         <v>2</v>
       </c>
       <c r="D8" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.3">
@@ -3760,14 +5404,14 @@
         <v>40</v>
       </c>
       <c r="B9" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="C9" s="13" t="s">
         <v>2</v>
       </c>
       <c r="D9" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.3">
@@ -3775,14 +5419,14 @@
         <v>40</v>
       </c>
       <c r="B10" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="C10" s="13" t="s">
         <v>2</v>
       </c>
       <c r="D10" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.3">
@@ -3790,14 +5434,14 @@
         <v>40</v>
       </c>
       <c r="B11" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="C11" s="13" t="s">
         <v>2</v>
       </c>
       <c r="D11" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.3">
@@ -3805,14 +5449,14 @@
         <v>40</v>
       </c>
       <c r="B12" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="C12" s="13" t="s">
         <v>2</v>
       </c>
       <c r="D12" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.3">
@@ -3820,14 +5464,14 @@
         <v>40</v>
       </c>
       <c r="B13" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="C13" s="13" t="s">
         <v>2</v>
       </c>
       <c r="D13" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.3">
@@ -3835,14 +5479,14 @@
         <v>40</v>
       </c>
       <c r="B14" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="C14" s="13" t="s">
         <v>2</v>
       </c>
       <c r="D14" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.3">
@@ -3850,14 +5494,14 @@
         <v>40</v>
       </c>
       <c r="B15" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="C15" s="13" t="s">
         <v>2</v>
       </c>
       <c r="D15" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.3">
@@ -3865,14 +5509,14 @@
         <v>40</v>
       </c>
       <c r="B16" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="C16" s="13" t="s">
         <v>2</v>
       </c>
       <c r="D16" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
@@ -4184,7 +5828,7 @@
         <v>1</v>
       </c>
       <c r="D44" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
@@ -4192,14 +5836,14 @@
         <v>42</v>
       </c>
       <c r="B45" s="13">
-        <f t="shared" ref="B45:B46" si="1">ROUNDUP(AVERAGE($B$32:$B$43),0)</f>
+        <f t="shared" ref="B45:B46" si="2">ROUNDUP(AVERAGE($B$32:$B$43),0)</f>
         <v>4</v>
       </c>
       <c r="C45" s="13" t="s">
         <v>1</v>
       </c>
       <c r="D45" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
@@ -4207,14 +5851,14 @@
         <v>42</v>
       </c>
       <c r="B46" s="13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="C46" s="13" t="s">
         <v>1</v>
       </c>
       <c r="D46" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>
@@ -4231,12 +5875,12 @@
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC378AD3-2E8E-42D2-BA1D-5DE4C5323598}">
   <sheetPr>
-    <tabColor theme="7" tint="0.39997558519241921"/>
+    <tabColor rgb="FF00B0F0"/>
   </sheetPr>
   <dimension ref="A1:I23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4247,29 +5891,29 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="11" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
@@ -4325,35 +5969,35 @@
     </row>
     <row r="10" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="F11" s="11" t="s">
         <v>105</v>
       </c>
-      <c r="B11" s="11" t="s">
+      <c r="G11" s="11" t="s">
         <v>106</v>
-      </c>
-      <c r="C11" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="D11" s="11" t="s">
-        <v>107</v>
-      </c>
-      <c r="E11" s="11" t="s">
-        <v>108</v>
-      </c>
-      <c r="F11" s="11" t="s">
-        <v>109</v>
-      </c>
-      <c r="G11" s="11" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="9" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="B12" s="9">
         <v>22.933333333333323</v>
@@ -4376,7 +6020,7 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="9" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="B13" s="9">
         <v>60.26666666666668</v>
@@ -4402,7 +6046,7 @@
     </row>
     <row r="15" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="10" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="B15" s="10">
         <v>83.2</v>
@@ -4417,32 +6061,32 @@
     </row>
     <row r="17" spans="9:9" ht="15.6" x14ac:dyDescent="0.35">
       <c r="I17" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
     <row r="18" spans="9:9" ht="15.6" x14ac:dyDescent="0.35">
       <c r="I18" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
     <row r="20" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I20" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
     </row>
     <row r="21" spans="9:9" ht="15.6" x14ac:dyDescent="0.35">
       <c r="I21" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="22" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I22" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="23" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I23" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
     </row>
   </sheetData>
